--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.06592966666667</v>
+        <v>17.16209533333333</v>
       </c>
       <c r="H2">
-        <v>99.197789</v>
+        <v>51.486286</v>
       </c>
       <c r="I2">
-        <v>0.4620579289161133</v>
+        <v>0.2459970657298922</v>
       </c>
       <c r="J2">
-        <v>0.4620579289161132</v>
+        <v>0.2459970657298922</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.023694333333334</v>
+        <v>2.883158333333334</v>
       </c>
       <c r="N2">
-        <v>21.071083</v>
+        <v>8.649475000000001</v>
       </c>
       <c r="O2">
-        <v>0.1590811435055747</v>
+        <v>0.1005826776766536</v>
       </c>
       <c r="P2">
-        <v>0.1590811435055747</v>
+        <v>0.1005826776766536</v>
       </c>
       <c r="Q2">
-        <v>232.2449828261653</v>
+        <v>49.48103817776111</v>
       </c>
       <c r="R2">
-        <v>2090.204845435487</v>
+        <v>445.32934359985</v>
       </c>
       <c r="S2">
-        <v>0.07350470369779287</v>
+        <v>0.02474304357171231</v>
       </c>
       <c r="T2">
-        <v>0.07350470369779286</v>
+        <v>0.02474304357171231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.06592966666667</v>
+        <v>17.16209533333333</v>
       </c>
       <c r="H3">
-        <v>99.197789</v>
+        <v>51.486286</v>
       </c>
       <c r="I3">
-        <v>0.4620579289161133</v>
+        <v>0.2459970657298922</v>
       </c>
       <c r="J3">
-        <v>0.4620579289161132</v>
+        <v>0.2459970657298922</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>41.74337300000001</v>
       </c>
       <c r="O3">
-        <v>0.3151515045818828</v>
+        <v>0.4854237085598054</v>
       </c>
       <c r="P3">
-        <v>0.3151515045818828</v>
+        <v>0.4854237085598054</v>
       </c>
       <c r="Q3">
-        <v>460.0944785558109</v>
+        <v>238.8012489869643</v>
       </c>
       <c r="R3">
-        <v>4140.850307002298</v>
+        <v>2149.211240882678</v>
       </c>
       <c r="S3">
-        <v>0.1456182515019018</v>
+        <v>0.1194128079414345</v>
       </c>
       <c r="T3">
-        <v>0.1456182515019017</v>
+        <v>0.1194128079414345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.06592966666667</v>
+        <v>17.16209533333333</v>
       </c>
       <c r="H4">
-        <v>99.197789</v>
+        <v>51.486286</v>
       </c>
       <c r="I4">
-        <v>0.4620579289161133</v>
+        <v>0.2459970657298922</v>
       </c>
       <c r="J4">
-        <v>0.4620579289161132</v>
+        <v>0.2459970657298922</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.213494</v>
+        <v>11.86694533333333</v>
       </c>
       <c r="N4">
-        <v>69.64048199999999</v>
+        <v>35.600836</v>
       </c>
       <c r="O4">
-        <v>0.5257673519125424</v>
+        <v>0.413993613763541</v>
       </c>
       <c r="P4">
-        <v>0.5257673519125424</v>
+        <v>0.413993613763541</v>
       </c>
       <c r="Q4">
-        <v>767.5757599215887</v>
+        <v>203.6616471261218</v>
       </c>
       <c r="R4">
-        <v>6908.181839294297</v>
+        <v>1832.954824135096</v>
       </c>
       <c r="S4">
-        <v>0.2429349737164186</v>
+        <v>0.1018412142167454</v>
       </c>
       <c r="T4">
-        <v>0.2429349737164186</v>
+        <v>0.1018412142167454</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>44.072723</v>
       </c>
       <c r="I5">
-        <v>0.2052883568914379</v>
+        <v>0.2105756965403629</v>
       </c>
       <c r="J5">
-        <v>0.2052883568914379</v>
+        <v>0.2105756965403628</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.023694333333334</v>
+        <v>2.883158333333334</v>
       </c>
       <c r="N5">
-        <v>21.071083</v>
+        <v>8.649475000000001</v>
       </c>
       <c r="O5">
-        <v>0.1590811435055747</v>
+        <v>0.1005826776766536</v>
       </c>
       <c r="P5">
-        <v>0.1590811435055747</v>
+        <v>0.1005826776766536</v>
       </c>
       <c r="Q5">
-        <v>103.1844449298899</v>
+        <v>42.35621286338056</v>
       </c>
       <c r="R5">
-        <v>928.6600043690091</v>
+        <v>381.205915770425</v>
       </c>
       <c r="S5">
-        <v>0.03265750656267047</v>
+        <v>0.02118026741165613</v>
       </c>
       <c r="T5">
-        <v>0.03265750656267047</v>
+        <v>0.02118026741165613</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>44.072723</v>
       </c>
       <c r="I6">
-        <v>0.2052883568914379</v>
+        <v>0.2105756965403629</v>
       </c>
       <c r="J6">
-        <v>0.2052883568914379</v>
+        <v>0.2105756965403628</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>41.74337300000001</v>
       </c>
       <c r="O6">
-        <v>0.3151515045818828</v>
+        <v>0.4854237085598054</v>
       </c>
       <c r="P6">
-        <v>0.3151515045818828</v>
+        <v>0.4854237085598054</v>
       </c>
       <c r="Q6">
-        <v>204.4160128127422</v>
+        <v>204.4160128127421</v>
       </c>
       <c r="R6">
         <v>1839.744115314679</v>
       </c>
       <c r="S6">
-        <v>0.06469693454747918</v>
+        <v>0.1022184355471871</v>
       </c>
       <c r="T6">
-        <v>0.06469693454747918</v>
+        <v>0.1022184355471871</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>44.072723</v>
       </c>
       <c r="I7">
-        <v>0.2052883568914379</v>
+        <v>0.2105756965403629</v>
       </c>
       <c r="J7">
-        <v>0.2052883568914379</v>
+        <v>0.2105756965403628</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.213494</v>
+        <v>11.86694533333333</v>
       </c>
       <c r="N7">
-        <v>69.64048199999999</v>
+        <v>35.600836</v>
       </c>
       <c r="O7">
-        <v>0.5257673519125424</v>
+        <v>0.413993613763541</v>
       </c>
       <c r="P7">
-        <v>0.5257673519125424</v>
+        <v>0.413993613763541</v>
       </c>
       <c r="Q7">
-        <v>341.0272969747206</v>
+        <v>174.3361981773809</v>
       </c>
       <c r="R7">
-        <v>3069.245672772486</v>
+        <v>1569.025783596428</v>
       </c>
       <c r="S7">
-        <v>0.1079339157812882</v>
+        <v>0.08717699358151962</v>
       </c>
       <c r="T7">
-        <v>0.1079339157812882</v>
+        <v>0.08717699358151959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.805466</v>
+        <v>37.91244433333333</v>
       </c>
       <c r="H8">
-        <v>71.416398</v>
+        <v>113.737333</v>
       </c>
       <c r="I8">
-        <v>0.3326537141924489</v>
+        <v>0.543427237729745</v>
       </c>
       <c r="J8">
-        <v>0.3326537141924489</v>
+        <v>0.543427237729745</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.023694333333334</v>
+        <v>2.883158333333334</v>
       </c>
       <c r="N8">
-        <v>21.071083</v>
+        <v>8.649475000000001</v>
       </c>
       <c r="O8">
-        <v>0.1590811435055747</v>
+        <v>0.1005826776766536</v>
       </c>
       <c r="P8">
-        <v>0.1590811435055747</v>
+        <v>0.1005826776766536</v>
       </c>
       <c r="Q8">
-        <v>167.2023166465594</v>
+        <v>109.3075798166861</v>
       </c>
       <c r="R8">
-        <v>1504.820849819034</v>
+        <v>983.7682183501752</v>
       </c>
       <c r="S8">
-        <v>0.0529189332451114</v>
+        <v>0.05465936669328513</v>
       </c>
       <c r="T8">
-        <v>0.0529189332451114</v>
+        <v>0.05465936669328513</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.805466</v>
+        <v>37.91244433333333</v>
       </c>
       <c r="H9">
-        <v>71.416398</v>
+        <v>113.737333</v>
       </c>
       <c r="I9">
-        <v>0.3326537141924489</v>
+        <v>0.543427237729745</v>
       </c>
       <c r="J9">
-        <v>0.3326537141924489</v>
+        <v>0.543427237729745</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>41.74337300000001</v>
       </c>
       <c r="O9">
-        <v>0.3151515045818828</v>
+        <v>0.4854237085598054</v>
       </c>
       <c r="P9">
-        <v>0.3151515045818828</v>
+        <v>0.4854237085598054</v>
       </c>
       <c r="Q9">
-        <v>331.2401488922727</v>
+        <v>527.5311017160233</v>
       </c>
       <c r="R9">
-        <v>2981.161340030455</v>
+        <v>4747.77991544421</v>
       </c>
       <c r="S9">
-        <v>0.1048363185325019</v>
+        <v>0.2637924650711838</v>
       </c>
       <c r="T9">
-        <v>0.1048363185325019</v>
+        <v>0.2637924650711838</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.805466</v>
+        <v>37.91244433333333</v>
       </c>
       <c r="H10">
-        <v>71.416398</v>
+        <v>113.737333</v>
       </c>
       <c r="I10">
-        <v>0.3326537141924489</v>
+        <v>0.543427237729745</v>
       </c>
       <c r="J10">
-        <v>0.3326537141924489</v>
+        <v>0.543427237729745</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.213494</v>
+        <v>11.86694533333333</v>
       </c>
       <c r="N10">
-        <v>69.64048199999999</v>
+        <v>35.600836</v>
       </c>
       <c r="O10">
-        <v>0.5257673519125424</v>
+        <v>0.413993613763541</v>
       </c>
       <c r="P10">
-        <v>0.5257673519125424</v>
+        <v>0.413993613763541</v>
       </c>
       <c r="Q10">
-        <v>552.6080421582039</v>
+        <v>449.9049043567098</v>
       </c>
       <c r="R10">
-        <v>4973.472379423835</v>
+        <v>4049.144139210388</v>
       </c>
       <c r="S10">
-        <v>0.1748984624148356</v>
+        <v>0.224975405965276</v>
       </c>
       <c r="T10">
-        <v>0.1748984624148356</v>
+        <v>0.224975405965276</v>
       </c>
     </row>
   </sheetData>
